--- a/Financials/Yearly/ELUXY_YR_FIN.xlsx
+++ b/Financials/Yearly/ELUXY_YR_FIN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCC995A6-3673-48EC-A466-161FD6729093}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ELUXY" sheetId="6" r:id="rId1"/>
@@ -17,12 +18,12 @@
   <definedNames>
     <definedName name="Ticker">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="152511" calcMode="manual" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
   <si>
     <t>ELUXY</t>
   </si>
@@ -303,9 +304,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +348,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -444,6 +445,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -479,6 +497,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -654,140 +689,152 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="8.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="11" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E7" s="2">
         <v>43100</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>42735</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42369</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42004</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>41639</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41274</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>40908</v>
       </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>13709900</v>
+        <v>13361200</v>
       </c>
       <c r="E8" s="3">
-        <v>13746500</v>
+        <v>12999800</v>
       </c>
       <c r="F8" s="3">
-        <v>14021000</v>
+        <v>13034500</v>
       </c>
       <c r="G8" s="3">
-        <v>12730500</v>
+        <v>13294700</v>
       </c>
       <c r="H8" s="3">
-        <v>12390800</v>
+        <v>12071100</v>
       </c>
       <c r="I8" s="3">
-        <v>12486500</v>
+        <v>11749000</v>
       </c>
       <c r="J8" s="3">
+        <v>11839800</v>
+      </c>
+      <c r="K8" s="3">
         <v>11533400</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>21765500</v>
+        <v>10797600</v>
       </c>
       <c r="E9" s="3">
-        <v>10877500</v>
+        <v>10249700</v>
       </c>
       <c r="F9" s="3">
-        <v>11342100</v>
+        <v>10314100</v>
       </c>
       <c r="G9" s="3">
-        <v>10394300</v>
+        <v>10754600</v>
       </c>
       <c r="H9" s="3">
-        <v>9977500</v>
+        <v>9855900</v>
       </c>
       <c r="I9" s="3">
-        <v>19935700</v>
+        <v>9460700</v>
       </c>
       <c r="J9" s="3">
+        <v>18903100</v>
+      </c>
+      <c r="K9" s="3">
         <v>9404000</v>
       </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>-8055600</v>
+        <v>2563700</v>
       </c>
       <c r="E10" s="3">
-        <v>2869000</v>
+        <v>2750100</v>
       </c>
       <c r="F10" s="3">
-        <v>2678800</v>
+        <v>2720400</v>
       </c>
       <c r="G10" s="3">
-        <v>2336100</v>
+        <v>2540100</v>
       </c>
       <c r="H10" s="3">
-        <v>2413300</v>
+        <v>2215100</v>
       </c>
       <c r="I10" s="3">
-        <v>-7449200</v>
+        <v>2288300</v>
       </c>
       <c r="J10" s="3">
+        <v>-7063300</v>
+      </c>
+      <c r="K10" s="3">
         <v>2129400</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -799,8 +846,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -825,9 +873,12 @@
       <c r="J12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -852,44 +903,50 @@
       <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-15900</v>
+        <v>70400</v>
       </c>
       <c r="E14" s="3">
-        <v>-18600</v>
+        <v>-15100</v>
       </c>
       <c r="F14" s="3">
-        <v>233700</v>
+        <v>-17700</v>
       </c>
       <c r="G14" s="3">
-        <v>134100</v>
+        <v>221600</v>
       </c>
       <c r="H14" s="3">
-        <v>281000</v>
+        <v>127100</v>
       </c>
       <c r="I14" s="3">
-        <v>117200</v>
+        <v>266400</v>
       </c>
       <c r="J14" s="3">
+        <v>111100</v>
+      </c>
+      <c r="K14" s="3">
         <v>15700</v>
       </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>50900</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>8</v>
+        <v>60600</v>
+      </c>
+      <c r="E15" s="3">
+        <v>48200</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>8</v>
@@ -906,9 +963,12 @@
       <c r="J15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -917,62 +977,69 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>12869100</v>
+        <v>12789700</v>
       </c>
       <c r="E17" s="3">
-        <v>13034300</v>
+        <v>12202500</v>
       </c>
       <c r="F17" s="3">
-        <v>13709800</v>
+        <v>12359100</v>
       </c>
       <c r="G17" s="3">
-        <v>12324000</v>
+        <v>12999700</v>
       </c>
       <c r="H17" s="3">
-        <v>12211500</v>
+        <v>11685600</v>
       </c>
       <c r="I17" s="3">
-        <v>12032400</v>
+        <v>11578900</v>
       </c>
       <c r="J17" s="3">
+        <v>11409200</v>
+      </c>
+      <c r="K17" s="3">
         <v>11190900</v>
       </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>840800</v>
+        <v>571600</v>
       </c>
       <c r="E18" s="3">
-        <v>712200</v>
+        <v>797300</v>
       </c>
       <c r="F18" s="3">
-        <v>311200</v>
+        <v>675300</v>
       </c>
       <c r="G18" s="3">
-        <v>406500</v>
+        <v>295000</v>
       </c>
       <c r="H18" s="3">
-        <v>179400</v>
+        <v>385500</v>
       </c>
       <c r="I18" s="3">
-        <v>454100</v>
+        <v>170100</v>
       </c>
       <c r="J18" s="3">
+        <v>430600</v>
+      </c>
+      <c r="K18" s="3">
         <v>342500</v>
       </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -984,143 +1051,159 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-9200</v>
+        <v>-20200</v>
       </c>
       <c r="E20" s="3">
-        <v>-43000</v>
+        <v>-8700</v>
       </c>
       <c r="F20" s="3">
-        <v>-31900</v>
+        <v>-40800</v>
       </c>
       <c r="G20" s="3">
-        <v>-2700</v>
+        <v>-30200</v>
       </c>
       <c r="H20" s="3">
-        <v>-3400</v>
+        <v>-2600</v>
       </c>
       <c r="I20" s="3">
-        <v>-4800</v>
+        <v>-3200</v>
       </c>
       <c r="J20" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="K20" s="3">
         <v>41000</v>
       </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1283700</v>
+        <v>998600</v>
       </c>
       <c r="E21" s="3">
-        <v>1116400</v>
+        <v>1217200</v>
       </c>
       <c r="F21" s="3">
-        <v>726700</v>
+        <v>1058500</v>
       </c>
       <c r="G21" s="3">
-        <v>821100</v>
+        <v>689000</v>
       </c>
       <c r="H21" s="3">
-        <v>557400</v>
+        <v>778500</v>
       </c>
       <c r="I21" s="3">
-        <v>818900</v>
+        <v>528600</v>
       </c>
       <c r="J21" s="3">
+        <v>776400</v>
+      </c>
+      <c r="K21" s="3">
         <v>744100</v>
       </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>40900</v>
+        <v>25300</v>
       </c>
       <c r="E22" s="3">
-        <v>35600</v>
+        <v>38800</v>
       </c>
       <c r="F22" s="3">
-        <v>40800</v>
+        <v>33800</v>
       </c>
       <c r="G22" s="3">
-        <v>63600</v>
+        <v>38600</v>
       </c>
       <c r="H22" s="3">
-        <v>73300</v>
+        <v>60300</v>
       </c>
       <c r="I22" s="3">
-        <v>91300</v>
+        <v>69500</v>
       </c>
       <c r="J22" s="3">
+        <v>86500</v>
+      </c>
+      <c r="K22" s="3">
         <v>67900</v>
       </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>790800</v>
+        <v>526000</v>
       </c>
       <c r="E23" s="3">
-        <v>633600</v>
+        <v>749800</v>
       </c>
       <c r="F23" s="3">
-        <v>238500</v>
+        <v>600700</v>
       </c>
       <c r="G23" s="3">
-        <v>340200</v>
+        <v>226200</v>
       </c>
       <c r="H23" s="3">
-        <v>102600</v>
+        <v>322600</v>
       </c>
       <c r="I23" s="3">
-        <v>358000</v>
+        <v>97300</v>
       </c>
       <c r="J23" s="3">
+        <v>339500</v>
+      </c>
+      <c r="K23" s="3">
         <v>315600</v>
       </c>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>138600</v>
+        <v>116400</v>
       </c>
       <c r="E24" s="3">
-        <v>123500</v>
+        <v>131400</v>
       </c>
       <c r="F24" s="3">
-        <v>60500</v>
+        <v>117100</v>
       </c>
       <c r="G24" s="3">
-        <v>85700</v>
+        <v>57400</v>
       </c>
       <c r="H24" s="3">
-        <v>26300</v>
+        <v>81300</v>
       </c>
       <c r="I24" s="3">
-        <v>89600</v>
+        <v>25000</v>
       </c>
       <c r="J24" s="3">
+        <v>84900</v>
+      </c>
+      <c r="K24" s="3">
         <v>81300</v>
       </c>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1145,63 +1228,72 @@
       <c r="J25" s="3">
         <v>0</v>
       </c>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>652200</v>
+        <v>409700</v>
       </c>
       <c r="E26" s="3">
-        <v>510000</v>
+        <v>618400</v>
       </c>
       <c r="F26" s="3">
-        <v>178000</v>
+        <v>483600</v>
       </c>
       <c r="G26" s="3">
-        <v>254500</v>
+        <v>168800</v>
       </c>
       <c r="H26" s="3">
-        <v>76300</v>
+        <v>241300</v>
       </c>
       <c r="I26" s="3">
-        <v>268500</v>
+        <v>72300</v>
       </c>
       <c r="J26" s="3">
+        <v>254600</v>
+      </c>
+      <c r="K26" s="3">
         <v>234300</v>
       </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>652200</v>
+        <v>409600</v>
       </c>
       <c r="E27" s="3">
-        <v>510200</v>
+        <v>618400</v>
       </c>
       <c r="F27" s="3">
-        <v>177800</v>
+        <v>483700</v>
       </c>
       <c r="G27" s="3">
-        <v>254400</v>
+        <v>168600</v>
       </c>
       <c r="H27" s="3">
-        <v>76200</v>
+        <v>241200</v>
       </c>
       <c r="I27" s="3">
-        <v>268100</v>
+        <v>72200</v>
       </c>
       <c r="J27" s="3">
+        <v>254200</v>
+      </c>
+      <c r="K27" s="3">
         <v>234300</v>
       </c>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1226,17 +1318,20 @@
       <c r="J28" s="3">
         <v>0</v>
       </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>-14500</v>
-      </c>
-      <c r="E29" s="3" t="s">
+      <c r="D29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="E29" s="3">
+        <v>-13800</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>8</v>
@@ -1253,9 +1348,12 @@
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1280,9 +1378,12 @@
       <c r="J30" s="3">
         <v>0</v>
       </c>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1307,63 +1408,72 @@
       <c r="J31" s="3">
         <v>0</v>
       </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>9200</v>
+        <v>20200</v>
       </c>
       <c r="E32" s="3">
-        <v>43000</v>
+        <v>8700</v>
       </c>
       <c r="F32" s="3">
-        <v>31900</v>
+        <v>40800</v>
       </c>
       <c r="G32" s="3">
-        <v>2700</v>
+        <v>30200</v>
       </c>
       <c r="H32" s="3">
-        <v>3400</v>
+        <v>2600</v>
       </c>
       <c r="I32" s="3">
-        <v>4800</v>
+        <v>3200</v>
       </c>
       <c r="J32" s="3">
+        <v>4500</v>
+      </c>
+      <c r="K32" s="3">
         <v>-41000</v>
       </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>637600</v>
+        <v>409600</v>
       </c>
       <c r="E33" s="3">
-        <v>510200</v>
+        <v>604600</v>
       </c>
       <c r="F33" s="3">
-        <v>177800</v>
+        <v>483700</v>
       </c>
       <c r="G33" s="3">
-        <v>254400</v>
+        <v>168600</v>
       </c>
       <c r="H33" s="3">
-        <v>76200</v>
+        <v>241200</v>
       </c>
       <c r="I33" s="3">
-        <v>268100</v>
+        <v>72200</v>
       </c>
       <c r="J33" s="3">
+        <v>254200</v>
+      </c>
+      <c r="K33" s="3">
         <v>234300</v>
       </c>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1388,68 +1498,77 @@
       <c r="J34" s="3">
         <v>0</v>
       </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>637600</v>
+        <v>409600</v>
       </c>
       <c r="E35" s="3">
-        <v>510200</v>
+        <v>604600</v>
       </c>
       <c r="F35" s="3">
-        <v>177800</v>
+        <v>483700</v>
       </c>
       <c r="G35" s="3">
-        <v>254400</v>
+        <v>168600</v>
       </c>
       <c r="H35" s="3">
-        <v>76200</v>
+        <v>241200</v>
       </c>
       <c r="I35" s="3">
-        <v>268100</v>
+        <v>72200</v>
       </c>
       <c r="J35" s="3">
+        <v>254200</v>
+      </c>
+      <c r="K35" s="3">
         <v>234300</v>
       </c>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E38" s="2">
         <v>43100</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>42735</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42369</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42004</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>41639</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41274</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>40908</v>
       </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1461,8 +1580,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1474,251 +1594,279 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1281500</v>
+        <v>1259100</v>
       </c>
       <c r="E41" s="3">
-        <v>1448100</v>
+        <v>1215100</v>
       </c>
       <c r="F41" s="3">
-        <v>1214200</v>
+        <v>1373100</v>
       </c>
       <c r="G41" s="3">
-        <v>1033800</v>
+        <v>1151300</v>
       </c>
       <c r="H41" s="3">
-        <v>750000</v>
+        <v>980300</v>
       </c>
       <c r="I41" s="3">
-        <v>775900</v>
+        <v>711200</v>
       </c>
       <c r="J41" s="3">
+        <v>735700</v>
+      </c>
+      <c r="K41" s="3">
         <v>790800</v>
       </c>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>40600</v>
+        <v>18900</v>
       </c>
       <c r="E42" s="3">
-        <v>102700</v>
+        <v>38500</v>
       </c>
       <c r="F42" s="3">
-        <v>12300</v>
+        <v>97400</v>
       </c>
       <c r="G42" s="3">
-        <v>11200</v>
+        <v>11600</v>
       </c>
       <c r="H42" s="3">
-        <v>16800</v>
+        <v>10700</v>
       </c>
       <c r="I42" s="3">
-        <v>14000</v>
+        <v>15900</v>
       </c>
       <c r="J42" s="3">
+        <v>13200</v>
+      </c>
+      <c r="K42" s="3">
         <v>38300</v>
       </c>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>5098500</v>
+        <v>2692800</v>
       </c>
       <c r="E43" s="3">
-        <v>2642700</v>
+        <v>2579900</v>
       </c>
       <c r="F43" s="3">
-        <v>2511400</v>
+        <v>2505900</v>
       </c>
       <c r="G43" s="3">
-        <v>2795900</v>
+        <v>2381300</v>
       </c>
       <c r="H43" s="3">
-        <v>2606200</v>
+        <v>2651100</v>
       </c>
       <c r="I43" s="3">
-        <v>4749800</v>
+        <v>2471200</v>
       </c>
       <c r="J43" s="3">
+        <v>4503800</v>
+      </c>
+      <c r="K43" s="3">
         <v>2472200</v>
       </c>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>3324700</v>
+        <v>1803000</v>
       </c>
       <c r="E44" s="3">
-        <v>1523200</v>
+        <v>1577500</v>
       </c>
       <c r="F44" s="3">
-        <v>1609600</v>
+        <v>1444300</v>
       </c>
       <c r="G44" s="3">
-        <v>1626100</v>
+        <v>1526200</v>
       </c>
       <c r="H44" s="3">
-        <v>1379700</v>
+        <v>1541800</v>
       </c>
       <c r="I44" s="3">
-        <v>2943100</v>
+        <v>1308300</v>
       </c>
       <c r="J44" s="3">
+        <v>2790700</v>
+      </c>
+      <c r="K44" s="3">
         <v>1357400</v>
       </c>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>610200</v>
+        <v>199100</v>
       </c>
       <c r="E45" s="3">
-        <v>170300</v>
+        <v>165300</v>
       </c>
       <c r="F45" s="3">
-        <v>190400</v>
+        <v>161500</v>
       </c>
       <c r="G45" s="3">
-        <v>223300</v>
+        <v>180500</v>
       </c>
       <c r="H45" s="3">
-        <v>215900</v>
+        <v>211700</v>
       </c>
       <c r="I45" s="3">
-        <v>789900</v>
+        <v>204700</v>
       </c>
       <c r="J45" s="3">
+        <v>749000</v>
+      </c>
+      <c r="K45" s="3">
         <v>230200</v>
       </c>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>5881000</v>
+        <v>5972900</v>
       </c>
       <c r="E46" s="3">
-        <v>5887000</v>
+        <v>5576400</v>
       </c>
       <c r="F46" s="3">
-        <v>5537800</v>
+        <v>5582100</v>
       </c>
       <c r="G46" s="3">
-        <v>5690300</v>
+        <v>5251000</v>
       </c>
       <c r="H46" s="3">
-        <v>4968700</v>
+        <v>5395600</v>
       </c>
       <c r="I46" s="3">
-        <v>4837000</v>
+        <v>4711300</v>
       </c>
       <c r="J46" s="3">
+        <v>4586400</v>
+      </c>
+      <c r="K46" s="3">
         <v>4888900</v>
       </c>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>114400</v>
+        <v>69200</v>
       </c>
       <c r="E47" s="3">
-        <v>101800</v>
+        <v>108500</v>
       </c>
       <c r="F47" s="3">
-        <v>153400</v>
+        <v>96600</v>
       </c>
       <c r="G47" s="3">
-        <v>187300</v>
+        <v>145400</v>
       </c>
       <c r="H47" s="3">
-        <v>142100</v>
+        <v>177600</v>
       </c>
       <c r="I47" s="3">
-        <v>148800</v>
+        <v>134800</v>
       </c>
       <c r="J47" s="3">
+        <v>141100</v>
+      </c>
+      <c r="K47" s="3">
         <v>198300</v>
       </c>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4357400</v>
+        <v>2269900</v>
       </c>
       <c r="E48" s="3">
-        <v>2125700</v>
+        <v>2065800</v>
       </c>
       <c r="F48" s="3">
-        <v>2094400</v>
+        <v>2015600</v>
       </c>
       <c r="G48" s="3">
-        <v>2149400</v>
+        <v>1986000</v>
       </c>
       <c r="H48" s="3">
-        <v>1959800</v>
+        <v>2038100</v>
       </c>
       <c r="I48" s="3">
-        <v>656800</v>
+        <v>1858300</v>
       </c>
       <c r="J48" s="3">
+        <v>622800</v>
+      </c>
+      <c r="K48" s="3">
         <v>1772400</v>
       </c>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2581200</v>
+        <v>1308700</v>
       </c>
       <c r="E49" s="3">
-        <v>891600</v>
+        <v>1223800</v>
       </c>
       <c r="F49" s="3">
-        <v>976400</v>
+        <v>845400</v>
       </c>
       <c r="G49" s="3">
-        <v>1047600</v>
+        <v>925800</v>
       </c>
       <c r="H49" s="3">
-        <v>1008700</v>
+        <v>993300</v>
       </c>
       <c r="I49" s="3">
-        <v>1397400</v>
+        <v>956500</v>
       </c>
       <c r="J49" s="3">
+        <v>1325000</v>
+      </c>
+      <c r="K49" s="3">
         <v>1266200</v>
       </c>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1743,9 +1891,12 @@
       <c r="J50" s="3">
         <v>0</v>
       </c>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1770,36 +1921,42 @@
       <c r="J51" s="3">
         <v>0</v>
       </c>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>752200</v>
+        <v>853900</v>
       </c>
       <c r="E52" s="3">
-        <v>739400</v>
+        <v>713200</v>
       </c>
       <c r="F52" s="3">
-        <v>713600</v>
+        <v>701100</v>
       </c>
       <c r="G52" s="3">
-        <v>652700</v>
+        <v>676600</v>
       </c>
       <c r="H52" s="3">
-        <v>548300</v>
+        <v>618900</v>
       </c>
       <c r="I52" s="3">
-        <v>591300</v>
+        <v>519900</v>
       </c>
       <c r="J52" s="3">
+        <v>560700</v>
+      </c>
+      <c r="K52" s="3">
         <v>545400</v>
       </c>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1824,36 +1981,42 @@
       <c r="J53" s="3">
         <v>0</v>
       </c>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>10164800</v>
+        <v>10474700</v>
       </c>
       <c r="E54" s="3">
-        <v>9745500</v>
+        <v>9638300</v>
       </c>
       <c r="F54" s="3">
-        <v>9475600</v>
+        <v>9240700</v>
       </c>
       <c r="G54" s="3">
-        <v>9727300</v>
+        <v>8984800</v>
       </c>
       <c r="H54" s="3">
-        <v>8627600</v>
+        <v>9223500</v>
       </c>
       <c r="I54" s="3">
-        <v>8536000</v>
+        <v>8180700</v>
       </c>
       <c r="J54" s="3">
+        <v>8093900</v>
+      </c>
+      <c r="K54" s="3">
         <v>8671100</v>
       </c>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1865,8 +2028,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1878,170 +2042,189 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3532100</v>
+        <v>3707400</v>
       </c>
       <c r="E57" s="3">
-        <v>3210700</v>
+        <v>3349100</v>
       </c>
       <c r="F57" s="3">
-        <v>3004500</v>
+        <v>3044400</v>
       </c>
       <c r="G57" s="3">
-        <v>2918000</v>
+        <v>2848900</v>
       </c>
       <c r="H57" s="3">
-        <v>2339300</v>
+        <v>2766900</v>
       </c>
       <c r="I57" s="3">
-        <v>2337400</v>
+        <v>2218100</v>
       </c>
       <c r="J57" s="3">
+        <v>2216300</v>
+      </c>
+      <c r="K57" s="3">
         <v>2099000</v>
       </c>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>588700</v>
+        <v>407300</v>
       </c>
       <c r="E58" s="3">
-        <v>178600</v>
+        <v>268100</v>
       </c>
       <c r="F58" s="3">
-        <v>474100</v>
+        <v>169300</v>
       </c>
       <c r="G58" s="3">
-        <v>455700</v>
+        <v>449500</v>
       </c>
       <c r="H58" s="3">
-        <v>211700</v>
+        <v>432100</v>
       </c>
       <c r="I58" s="3">
-        <v>563200</v>
+        <v>200700</v>
       </c>
       <c r="J58" s="3">
+        <v>534000</v>
+      </c>
+      <c r="K58" s="3">
         <v>473400</v>
       </c>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3974300</v>
+        <v>2222000</v>
       </c>
       <c r="E59" s="3">
-        <v>2204100</v>
+        <v>2077200</v>
       </c>
       <c r="F59" s="3">
-        <v>2077400</v>
+        <v>2089900</v>
       </c>
       <c r="G59" s="3">
-        <v>2095400</v>
+        <v>1969800</v>
       </c>
       <c r="H59" s="3">
-        <v>2078900</v>
+        <v>1986800</v>
       </c>
       <c r="I59" s="3">
-        <v>4142000</v>
+        <v>1971200</v>
       </c>
       <c r="J59" s="3">
+        <v>3927500</v>
+      </c>
+      <c r="K59" s="3">
         <v>1691800</v>
       </c>
-      <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>6005500</v>
+        <v>6336800</v>
       </c>
       <c r="E60" s="3">
-        <v>5593400</v>
+        <v>5694500</v>
       </c>
       <c r="F60" s="3">
-        <v>5556000</v>
+        <v>5303600</v>
       </c>
       <c r="G60" s="3">
-        <v>5469100</v>
+        <v>5268200</v>
       </c>
       <c r="H60" s="3">
-        <v>4629900</v>
+        <v>5185800</v>
       </c>
       <c r="I60" s="3">
-        <v>4430700</v>
+        <v>4390100</v>
       </c>
       <c r="J60" s="3">
+        <v>4201200</v>
+      </c>
+      <c r="K60" s="3">
         <v>4264200</v>
       </c>
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>747800</v>
+        <v>667200</v>
       </c>
       <c r="E61" s="3">
-        <v>902700</v>
+        <v>709000</v>
       </c>
       <c r="F61" s="3">
-        <v>944800</v>
+        <v>856000</v>
       </c>
       <c r="G61" s="3">
-        <v>1081700</v>
+        <v>895900</v>
       </c>
       <c r="H61" s="3">
-        <v>1354900</v>
+        <v>1025700</v>
       </c>
       <c r="I61" s="3">
-        <v>1135800</v>
+        <v>1284700</v>
       </c>
       <c r="J61" s="3">
+        <v>1076900</v>
+      </c>
+      <c r="K61" s="3">
         <v>1094200</v>
       </c>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1086600</v>
+        <v>1129700</v>
       </c>
       <c r="E62" s="3">
-        <v>1235800</v>
+        <v>1649600</v>
       </c>
       <c r="F62" s="3">
-        <v>1271400</v>
+        <v>1171800</v>
       </c>
       <c r="G62" s="3">
-        <v>1307100</v>
+        <v>1205600</v>
       </c>
       <c r="H62" s="3">
-        <v>1018600</v>
+        <v>1239400</v>
       </c>
       <c r="I62" s="3">
-        <v>1184400</v>
+        <v>965900</v>
       </c>
       <c r="J62" s="3">
+        <v>1123000</v>
+      </c>
+      <c r="K62" s="3">
         <v>969200</v>
       </c>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2066,9 +2249,12 @@
       <c r="J63" s="3">
         <v>0</v>
       </c>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2093,9 +2279,12 @@
       <c r="J64" s="3">
         <v>0</v>
       </c>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2120,36 +2309,42 @@
       <c r="J65" s="3">
         <v>0</v>
       </c>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>7841500</v>
+        <v>8134800</v>
       </c>
       <c r="E66" s="3">
-        <v>7735300</v>
+        <v>7435300</v>
       </c>
       <c r="F66" s="3">
-        <v>7775700</v>
+        <v>7334600</v>
       </c>
       <c r="G66" s="3">
-        <v>7861700</v>
+        <v>7372900</v>
       </c>
       <c r="H66" s="3">
-        <v>7007200</v>
+        <v>7454500</v>
       </c>
       <c r="I66" s="3">
-        <v>6755500</v>
+        <v>6644300</v>
       </c>
       <c r="J66" s="3">
+        <v>6405500</v>
+      </c>
+      <c r="K66" s="3">
         <v>6340000</v>
       </c>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2161,8 +2356,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2187,9 +2383,12 @@
       <c r="J68" s="3">
         <v>0</v>
       </c>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2214,9 +2413,12 @@
       <c r="J69" s="3">
         <v>0</v>
       </c>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2241,9 +2443,12 @@
       <c r="J70" s="3">
         <v>0</v>
       </c>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2268,36 +2473,42 @@
       <c r="J71" s="3">
         <v>0</v>
       </c>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1818000</v>
+        <v>1861000</v>
       </c>
       <c r="E72" s="3">
-        <v>1505000</v>
+        <v>1723900</v>
       </c>
       <c r="F72" s="3">
-        <v>1194800</v>
+        <v>1427100</v>
       </c>
       <c r="G72" s="3">
-        <v>1360400</v>
+        <v>1132900</v>
       </c>
       <c r="H72" s="3">
-        <v>1115200</v>
+        <v>1290000</v>
       </c>
       <c r="I72" s="3">
-        <v>1275400</v>
+        <v>1057500</v>
       </c>
       <c r="J72" s="3">
+        <v>1209300</v>
+      </c>
+      <c r="K72" s="3">
         <v>1826000</v>
       </c>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2322,9 +2533,12 @@
       <c r="J73" s="3">
         <v>0</v>
       </c>
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2349,9 +2563,12 @@
       <c r="J74" s="3">
         <v>0</v>
       </c>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K74" s="3">
+        <v>0</v>
+      </c>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2376,36 +2593,42 @@
       <c r="J75" s="3">
         <v>0</v>
       </c>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K75" s="3">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2323300</v>
+        <v>2339900</v>
       </c>
       <c r="E76" s="3">
-        <v>2010200</v>
+        <v>2203000</v>
       </c>
       <c r="F76" s="3">
-        <v>1700000</v>
+        <v>1906100</v>
       </c>
       <c r="G76" s="3">
-        <v>1865600</v>
+        <v>1611900</v>
       </c>
       <c r="H76" s="3">
-        <v>1620400</v>
+        <v>1769000</v>
       </c>
       <c r="I76" s="3">
-        <v>1780600</v>
+        <v>1536500</v>
       </c>
       <c r="J76" s="3">
+        <v>1688300</v>
+      </c>
+      <c r="K76" s="3">
         <v>2331100</v>
       </c>
-      <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2430,68 +2653,77 @@
       <c r="J77" s="3">
         <v>0</v>
       </c>
-      <c r="K77" s="3"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E80" s="2">
         <v>43100</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>42735</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42369</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42004</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>41639</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41274</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>40908</v>
       </c>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>637600</v>
+        <v>409600</v>
       </c>
       <c r="E81" s="3">
-        <v>510200</v>
+        <v>604600</v>
       </c>
       <c r="F81" s="3">
-        <v>177800</v>
+        <v>483700</v>
       </c>
       <c r="G81" s="3">
-        <v>254400</v>
+        <v>168600</v>
       </c>
       <c r="H81" s="3">
-        <v>76200</v>
+        <v>241200</v>
       </c>
       <c r="I81" s="3">
-        <v>268100</v>
+        <v>72200</v>
       </c>
       <c r="J81" s="3">
+        <v>254200</v>
+      </c>
+      <c r="K81" s="3">
         <v>234300</v>
       </c>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2503,35 +2735,39 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>451500</v>
+        <v>446700</v>
       </c>
       <c r="E83" s="3">
-        <v>446600</v>
+        <v>428100</v>
       </c>
       <c r="F83" s="3">
-        <v>446800</v>
+        <v>423500</v>
       </c>
       <c r="G83" s="3">
-        <v>416700</v>
+        <v>423700</v>
       </c>
       <c r="H83" s="3">
-        <v>381000</v>
+        <v>395100</v>
       </c>
       <c r="I83" s="3">
-        <v>369100</v>
+        <v>361200</v>
       </c>
       <c r="J83" s="3">
+        <v>349900</v>
+      </c>
+      <c r="K83" s="3">
         <v>360200</v>
       </c>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2556,9 +2792,12 @@
       <c r="J84" s="3">
         <v>0</v>
       </c>
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K84" s="3">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2583,9 +2822,12 @@
       <c r="J85" s="3">
         <v>0</v>
       </c>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K85" s="3">
+        <v>0</v>
+      </c>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2610,9 +2852,12 @@
       <c r="J86" s="3">
         <v>0</v>
       </c>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K86" s="3">
+        <v>0</v>
+      </c>
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2637,9 +2882,12 @@
       <c r="J87" s="3">
         <v>0</v>
       </c>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K87" s="3">
+        <v>0</v>
+      </c>
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2664,36 +2912,42 @@
       <c r="J88" s="3">
         <v>0</v>
       </c>
-      <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K88" s="3">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1137900</v>
+        <v>866100</v>
       </c>
       <c r="E89" s="3">
-        <v>1153900</v>
+        <v>1079000</v>
       </c>
       <c r="F89" s="3">
-        <v>938500</v>
+        <v>1094200</v>
       </c>
       <c r="G89" s="3">
-        <v>888000</v>
+        <v>889900</v>
       </c>
       <c r="H89" s="3">
-        <v>505700</v>
+        <v>842000</v>
       </c>
       <c r="I89" s="3">
-        <v>803700</v>
+        <v>479500</v>
       </c>
       <c r="J89" s="3">
+        <v>762100</v>
+      </c>
+      <c r="K89" s="3">
         <v>612900</v>
       </c>
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2705,35 +2959,39 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-531200</v>
+        <v>-500500</v>
       </c>
       <c r="E91" s="3">
-        <v>-384800</v>
+        <v>-418900</v>
       </c>
       <c r="F91" s="3">
-        <v>-413200</v>
+        <v>-304600</v>
       </c>
       <c r="G91" s="3">
-        <v>-414500</v>
+        <v>-325800</v>
       </c>
       <c r="H91" s="3">
-        <v>-509800</v>
+        <v>-323600</v>
       </c>
       <c r="I91" s="3">
-        <v>-529500</v>
+        <v>-380500</v>
       </c>
       <c r="J91" s="3">
+        <v>-440200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-443500</v>
       </c>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2758,9 +3016,12 @@
       <c r="J92" s="3">
         <v>0</v>
       </c>
-      <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K92" s="3">
+        <v>0</v>
+      </c>
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2785,36 +3046,42 @@
       <c r="J93" s="3">
         <v>0</v>
       </c>
-      <c r="K93" s="3"/>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-930900</v>
+        <v>-700300</v>
       </c>
       <c r="E94" s="3">
-        <v>-290300</v>
+        <v>-882600</v>
       </c>
       <c r="F94" s="3">
-        <v>-386300</v>
+        <v>-275200</v>
       </c>
       <c r="G94" s="3">
-        <v>-426700</v>
+        <v>-366300</v>
       </c>
       <c r="H94" s="3">
-        <v>-537400</v>
+        <v>-404600</v>
       </c>
       <c r="I94" s="3">
-        <v>-533800</v>
+        <v>-509600</v>
       </c>
       <c r="J94" s="3">
+        <v>-506100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1140800</v>
       </c>
-      <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2826,35 +3093,39 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-244600</v>
+        <v>-256700</v>
       </c>
       <c r="E96" s="3">
-        <v>-212100</v>
+        <v>-232000</v>
       </c>
       <c r="F96" s="3">
-        <v>-212300</v>
+        <v>-201100</v>
       </c>
       <c r="G96" s="3">
-        <v>-211300</v>
+        <v>-201300</v>
       </c>
       <c r="H96" s="3">
-        <v>-211100</v>
+        <v>-200300</v>
       </c>
       <c r="I96" s="3">
-        <v>-212100</v>
+        <v>-200200</v>
       </c>
       <c r="J96" s="3">
+        <v>-201100</v>
+      </c>
+      <c r="K96" s="3">
         <v>-210000</v>
       </c>
-      <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2879,9 +3150,12 @@
       <c r="J97" s="3">
         <v>0</v>
       </c>
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K97" s="3">
+        <v>0</v>
+      </c>
+      <c r="L97" s="3"/>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2906,9 +3180,12 @@
       <c r="J98" s="3">
         <v>0</v>
       </c>
-      <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K98" s="3">
+        <v>0</v>
+      </c>
+      <c r="L98" s="3"/>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2933,88 +3210,100 @@
       <c r="J99" s="3">
         <v>0</v>
       </c>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K99" s="3">
+        <v>0</v>
+      </c>
+      <c r="L99" s="3"/>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-360800</v>
+        <v>-134000</v>
       </c>
       <c r="E100" s="3">
-        <v>-615700</v>
+        <v>-342100</v>
       </c>
       <c r="F100" s="3">
-        <v>-338300</v>
+        <v>-583800</v>
       </c>
       <c r="G100" s="3">
-        <v>-198300</v>
+        <v>-320800</v>
       </c>
       <c r="H100" s="3">
-        <v>51500</v>
+        <v>-188000</v>
       </c>
       <c r="I100" s="3">
-        <v>-257600</v>
+        <v>48900</v>
       </c>
       <c r="J100" s="3">
+        <v>-244200</v>
+      </c>
+      <c r="K100" s="3">
         <v>149500</v>
       </c>
-      <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3"/>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-12800</v>
+        <v>12200</v>
       </c>
       <c r="E101" s="3">
-        <v>-14100</v>
+        <v>-12200</v>
       </c>
       <c r="F101" s="3">
-        <v>-33500</v>
+        <v>-13300</v>
       </c>
       <c r="G101" s="3">
-        <v>20900</v>
+        <v>-31800</v>
       </c>
       <c r="H101" s="3">
-        <v>-45700</v>
+        <v>19800</v>
       </c>
       <c r="I101" s="3">
-        <v>-27200</v>
+        <v>-43400</v>
       </c>
       <c r="J101" s="3">
+        <v>-25800</v>
+      </c>
+      <c r="K101" s="3">
         <v>-10200</v>
       </c>
-      <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3"/>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-166500</v>
+        <v>43900</v>
       </c>
       <c r="E102" s="3">
-        <v>233900</v>
+        <v>-157900</v>
       </c>
       <c r="F102" s="3">
-        <v>180400</v>
+        <v>221700</v>
       </c>
       <c r="G102" s="3">
-        <v>283800</v>
+        <v>171000</v>
       </c>
       <c r="H102" s="3">
-        <v>-25900</v>
+        <v>269100</v>
       </c>
       <c r="I102" s="3">
-        <v>-14900</v>
+        <v>-24500</v>
       </c>
       <c r="J102" s="3">
+        <v>-14100</v>
+      </c>
+      <c r="K102" s="3">
         <v>-388600</v>
       </c>
-      <c r="K102" s="3"/>
+      <c r="L102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Financials/Yearly/ELUXY_YR_FIN.xlsx
+++ b/Financials/Yearly/ELUXY_YR_FIN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCC995A6-3673-48EC-A466-161FD6729093}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="ELUXY" sheetId="6" r:id="rId1"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
   <si>
     <t>ELUXY</t>
   </si>
@@ -304,7 +303,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
@@ -445,23 +444,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -497,23 +479,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -689,32 +654,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
@@ -744,97 +709,97 @@
       </c>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>13361200</v>
+        <v>12000100</v>
       </c>
       <c r="E8" s="3">
-        <v>12999800</v>
+        <v>12551700</v>
       </c>
       <c r="F8" s="3">
-        <v>13034500</v>
+        <v>12585200</v>
       </c>
       <c r="G8" s="3">
-        <v>13294700</v>
+        <v>12836500</v>
       </c>
       <c r="H8" s="3">
-        <v>12071100</v>
+        <v>11655000</v>
       </c>
       <c r="I8" s="3">
-        <v>11749000</v>
+        <v>11344100</v>
       </c>
       <c r="J8" s="3">
-        <v>11839800</v>
+        <v>11431700</v>
       </c>
       <c r="K8" s="3">
         <v>11533400</v>
       </c>
       <c r="L8" s="3"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>10797600</v>
+        <v>10223000</v>
       </c>
       <c r="E9" s="3">
-        <v>10249700</v>
+        <v>9896400</v>
       </c>
       <c r="F9" s="3">
-        <v>10314100</v>
+        <v>9958600</v>
       </c>
       <c r="G9" s="3">
-        <v>10754600</v>
+        <v>10384000</v>
       </c>
       <c r="H9" s="3">
-        <v>9855900</v>
+        <v>9516200</v>
       </c>
       <c r="I9" s="3">
-        <v>9460700</v>
+        <v>9134600</v>
       </c>
       <c r="J9" s="3">
-        <v>18903100</v>
+        <v>18251600</v>
       </c>
       <c r="K9" s="3">
         <v>9404000</v>
       </c>
       <c r="L9" s="3"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2563700</v>
+        <v>1777100</v>
       </c>
       <c r="E10" s="3">
-        <v>2750100</v>
+        <v>2655300</v>
       </c>
       <c r="F10" s="3">
-        <v>2720400</v>
+        <v>2626600</v>
       </c>
       <c r="G10" s="3">
-        <v>2540100</v>
+        <v>2452500</v>
       </c>
       <c r="H10" s="3">
-        <v>2215100</v>
+        <v>2138800</v>
       </c>
       <c r="I10" s="3">
-        <v>2288300</v>
+        <v>2209400</v>
       </c>
       <c r="J10" s="3">
-        <v>-7063300</v>
+        <v>-6819900</v>
       </c>
       <c r="K10" s="3">
         <v>2129400</v>
       </c>
       <c r="L10" s="3"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -848,7 +813,7 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -878,7 +843,7 @@
       </c>
       <c r="L12" s="3"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -908,45 +873,45 @@
       </c>
       <c r="L13" s="3"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>70400</v>
+        <v>145600</v>
       </c>
       <c r="E14" s="3">
-        <v>-15100</v>
+        <v>-14600</v>
       </c>
       <c r="F14" s="3">
-        <v>-17700</v>
+        <v>-17000</v>
       </c>
       <c r="G14" s="3">
-        <v>221600</v>
+        <v>214000</v>
       </c>
       <c r="H14" s="3">
-        <v>127100</v>
+        <v>122700</v>
       </c>
       <c r="I14" s="3">
-        <v>266400</v>
+        <v>257200</v>
       </c>
       <c r="J14" s="3">
-        <v>111100</v>
+        <v>107300</v>
       </c>
       <c r="K14" s="3">
         <v>15700</v>
       </c>
       <c r="L14" s="3"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>60600</v>
+        <v>58500</v>
       </c>
       <c r="E15" s="3">
-        <v>48200</v>
+        <v>46600</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>8</v>
@@ -968,7 +933,7 @@
       </c>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -979,67 +944,67 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>12789700</v>
+        <v>11566100</v>
       </c>
       <c r="E17" s="3">
-        <v>12202500</v>
+        <v>11781900</v>
       </c>
       <c r="F17" s="3">
-        <v>12359100</v>
+        <v>11933100</v>
       </c>
       <c r="G17" s="3">
-        <v>12999700</v>
+        <v>12551600</v>
       </c>
       <c r="H17" s="3">
-        <v>11685600</v>
+        <v>11282800</v>
       </c>
       <c r="I17" s="3">
-        <v>11578900</v>
+        <v>11179900</v>
       </c>
       <c r="J17" s="3">
-        <v>11409200</v>
+        <v>11016000</v>
       </c>
       <c r="K17" s="3">
         <v>11190900</v>
       </c>
       <c r="L17" s="3"/>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>571600</v>
+        <v>434000</v>
       </c>
       <c r="E18" s="3">
-        <v>797300</v>
+        <v>769800</v>
       </c>
       <c r="F18" s="3">
-        <v>675300</v>
+        <v>652100</v>
       </c>
       <c r="G18" s="3">
-        <v>295000</v>
+        <v>284900</v>
       </c>
       <c r="H18" s="3">
-        <v>385500</v>
+        <v>372200</v>
       </c>
       <c r="I18" s="3">
-        <v>170100</v>
+        <v>164200</v>
       </c>
       <c r="J18" s="3">
-        <v>430600</v>
+        <v>415700</v>
       </c>
       <c r="K18" s="3">
         <v>342500</v>
       </c>
       <c r="L18" s="3"/>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1053,157 +1018,157 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
     </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-20200</v>
+        <v>-19400</v>
       </c>
       <c r="E20" s="3">
-        <v>-8700</v>
+        <v>-8400</v>
       </c>
       <c r="F20" s="3">
-        <v>-40800</v>
+        <v>-39400</v>
       </c>
       <c r="G20" s="3">
-        <v>-30200</v>
+        <v>-29200</v>
       </c>
       <c r="H20" s="3">
-        <v>-2600</v>
+        <v>-2500</v>
       </c>
       <c r="I20" s="3">
-        <v>-3200</v>
+        <v>-3100</v>
       </c>
       <c r="J20" s="3">
-        <v>-4500</v>
+        <v>-4400</v>
       </c>
       <c r="K20" s="3">
         <v>41000</v>
       </c>
       <c r="L20" s="3"/>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>998600</v>
+        <v>847600</v>
       </c>
       <c r="E21" s="3">
-        <v>1217200</v>
+        <v>1176400</v>
       </c>
       <c r="F21" s="3">
-        <v>1058500</v>
+        <v>1023100</v>
       </c>
       <c r="G21" s="3">
-        <v>689000</v>
+        <v>666400</v>
       </c>
       <c r="H21" s="3">
-        <v>778500</v>
+        <v>752700</v>
       </c>
       <c r="I21" s="3">
-        <v>528600</v>
-      </c>
-      <c r="J21" s="3">
-        <v>776400</v>
+        <v>511300</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K21" s="3">
         <v>744100</v>
       </c>
       <c r="L21" s="3"/>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>25300</v>
+        <v>24400</v>
       </c>
       <c r="E22" s="3">
-        <v>38800</v>
+        <v>37400</v>
       </c>
       <c r="F22" s="3">
-        <v>33800</v>
+        <v>32600</v>
       </c>
       <c r="G22" s="3">
-        <v>38600</v>
+        <v>37300</v>
       </c>
       <c r="H22" s="3">
-        <v>60300</v>
+        <v>58200</v>
       </c>
       <c r="I22" s="3">
-        <v>69500</v>
+        <v>67100</v>
       </c>
       <c r="J22" s="3">
-        <v>86500</v>
+        <v>83600</v>
       </c>
       <c r="K22" s="3">
         <v>67900</v>
       </c>
       <c r="L22" s="3"/>
     </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>526000</v>
+        <v>390200</v>
       </c>
       <c r="E23" s="3">
-        <v>749800</v>
+        <v>724000</v>
       </c>
       <c r="F23" s="3">
-        <v>600700</v>
+        <v>580000</v>
       </c>
       <c r="G23" s="3">
-        <v>226200</v>
+        <v>218400</v>
       </c>
       <c r="H23" s="3">
-        <v>322600</v>
+        <v>311500</v>
       </c>
       <c r="I23" s="3">
-        <v>97300</v>
+        <v>94000</v>
       </c>
       <c r="J23" s="3">
-        <v>339500</v>
+        <v>327800</v>
       </c>
       <c r="K23" s="3">
         <v>315600</v>
       </c>
       <c r="L23" s="3"/>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>116400</v>
+        <v>93500</v>
       </c>
       <c r="E24" s="3">
-        <v>131400</v>
+        <v>126900</v>
       </c>
       <c r="F24" s="3">
-        <v>117100</v>
+        <v>113100</v>
       </c>
       <c r="G24" s="3">
-        <v>57400</v>
+        <v>55400</v>
       </c>
       <c r="H24" s="3">
-        <v>81300</v>
+        <v>78500</v>
       </c>
       <c r="I24" s="3">
-        <v>25000</v>
+        <v>24100</v>
       </c>
       <c r="J24" s="3">
-        <v>84900</v>
+        <v>82000</v>
       </c>
       <c r="K24" s="3">
         <v>81300</v>
       </c>
       <c r="L24" s="3"/>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1233,67 +1198,67 @@
       </c>
       <c r="L25" s="3"/>
     </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>409700</v>
+        <v>296600</v>
       </c>
       <c r="E26" s="3">
-        <v>618400</v>
+        <v>597100</v>
       </c>
       <c r="F26" s="3">
-        <v>483600</v>
+        <v>467000</v>
       </c>
       <c r="G26" s="3">
-        <v>168800</v>
+        <v>163000</v>
       </c>
       <c r="H26" s="3">
-        <v>241300</v>
+        <v>233000</v>
       </c>
       <c r="I26" s="3">
-        <v>72300</v>
+        <v>69800</v>
       </c>
       <c r="J26" s="3">
-        <v>254600</v>
+        <v>245800</v>
       </c>
       <c r="K26" s="3">
         <v>234300</v>
       </c>
       <c r="L26" s="3"/>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>409600</v>
+        <v>296500</v>
       </c>
       <c r="E27" s="3">
-        <v>618400</v>
+        <v>597100</v>
       </c>
       <c r="F27" s="3">
-        <v>483700</v>
+        <v>467100</v>
       </c>
       <c r="G27" s="3">
-        <v>168600</v>
+        <v>162800</v>
       </c>
       <c r="H27" s="3">
-        <v>241200</v>
+        <v>232900</v>
       </c>
       <c r="I27" s="3">
-        <v>72200</v>
+        <v>69700</v>
       </c>
       <c r="J27" s="3">
-        <v>254200</v>
+        <v>245500</v>
       </c>
       <c r="K27" s="3">
         <v>234300</v>
       </c>
       <c r="L27" s="3"/>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1323,15 +1288,15 @@
       </c>
       <c r="L28" s="3"/>
     </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>8</v>
+      <c r="D29" s="3">
+        <v>98800</v>
       </c>
       <c r="E29" s="3">
-        <v>-13800</v>
+        <v>-13300</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>8</v>
@@ -1353,7 +1318,7 @@
       </c>
       <c r="L29" s="3"/>
     </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1383,7 +1348,7 @@
       </c>
       <c r="L30" s="3"/>
     </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1413,67 +1378,67 @@
       </c>
       <c r="L31" s="3"/>
     </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>20200</v>
+        <v>19400</v>
       </c>
       <c r="E32" s="3">
-        <v>8700</v>
+        <v>8400</v>
       </c>
       <c r="F32" s="3">
-        <v>40800</v>
+        <v>39400</v>
       </c>
       <c r="G32" s="3">
-        <v>30200</v>
+        <v>29200</v>
       </c>
       <c r="H32" s="3">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="I32" s="3">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="J32" s="3">
-        <v>4500</v>
+        <v>4400</v>
       </c>
       <c r="K32" s="3">
         <v>-41000</v>
       </c>
       <c r="L32" s="3"/>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>409600</v>
+        <v>395300</v>
       </c>
       <c r="E33" s="3">
-        <v>604600</v>
+        <v>583800</v>
       </c>
       <c r="F33" s="3">
-        <v>483700</v>
+        <v>467100</v>
       </c>
       <c r="G33" s="3">
-        <v>168600</v>
+        <v>162800</v>
       </c>
       <c r="H33" s="3">
-        <v>241200</v>
+        <v>232900</v>
       </c>
       <c r="I33" s="3">
-        <v>72200</v>
+        <v>69700</v>
       </c>
       <c r="J33" s="3">
-        <v>254200</v>
+        <v>245500</v>
       </c>
       <c r="K33" s="3">
         <v>234300</v>
       </c>
       <c r="L33" s="3"/>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1503,42 +1468,42 @@
       </c>
       <c r="L34" s="3"/>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>409600</v>
+        <v>395300</v>
       </c>
       <c r="E35" s="3">
-        <v>604600</v>
+        <v>583800</v>
       </c>
       <c r="F35" s="3">
-        <v>483700</v>
+        <v>467100</v>
       </c>
       <c r="G35" s="3">
-        <v>168600</v>
+        <v>162800</v>
       </c>
       <c r="H35" s="3">
-        <v>241200</v>
+        <v>232900</v>
       </c>
       <c r="I35" s="3">
-        <v>72200</v>
+        <v>69700</v>
       </c>
       <c r="J35" s="3">
-        <v>254200</v>
+        <v>245500</v>
       </c>
       <c r="K35" s="3">
         <v>234300</v>
       </c>
       <c r="L35" s="3"/>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
@@ -1568,7 +1533,7 @@
       </c>
       <c r="L38" s="2"/>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1582,7 +1547,7 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
     </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1596,277 +1561,277 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
     </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1259100</v>
+        <v>1215700</v>
       </c>
       <c r="E41" s="3">
-        <v>1215100</v>
+        <v>1173300</v>
       </c>
       <c r="F41" s="3">
-        <v>1373100</v>
+        <v>1325700</v>
       </c>
       <c r="G41" s="3">
-        <v>1151300</v>
+        <v>1111600</v>
       </c>
       <c r="H41" s="3">
-        <v>980300</v>
+        <v>946500</v>
       </c>
       <c r="I41" s="3">
-        <v>711200</v>
+        <v>686700</v>
       </c>
       <c r="J41" s="3">
-        <v>735700</v>
+        <v>710400</v>
       </c>
       <c r="K41" s="3">
         <v>790800</v>
       </c>
       <c r="L41" s="3"/>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>18900</v>
+        <v>18300</v>
       </c>
       <c r="E42" s="3">
-        <v>38500</v>
+        <v>37200</v>
       </c>
       <c r="F42" s="3">
-        <v>97400</v>
+        <v>94100</v>
       </c>
       <c r="G42" s="3">
-        <v>11600</v>
+        <v>11200</v>
       </c>
       <c r="H42" s="3">
-        <v>10700</v>
+        <v>10300</v>
       </c>
       <c r="I42" s="3">
-        <v>15900</v>
+        <v>15400</v>
       </c>
       <c r="J42" s="3">
-        <v>13200</v>
+        <v>12800</v>
       </c>
       <c r="K42" s="3">
         <v>38300</v>
       </c>
       <c r="L42" s="3"/>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2692800</v>
+        <v>2600000</v>
       </c>
       <c r="E43" s="3">
-        <v>2579900</v>
+        <v>2491000</v>
       </c>
       <c r="F43" s="3">
-        <v>2505900</v>
+        <v>2419500</v>
       </c>
       <c r="G43" s="3">
-        <v>2381300</v>
+        <v>2299200</v>
       </c>
       <c r="H43" s="3">
-        <v>2651100</v>
+        <v>2559700</v>
       </c>
       <c r="I43" s="3">
-        <v>2471200</v>
+        <v>2386000</v>
       </c>
       <c r="J43" s="3">
-        <v>4503800</v>
+        <v>4348500</v>
       </c>
       <c r="K43" s="3">
         <v>2472200</v>
       </c>
       <c r="L43" s="3"/>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1803000</v>
+        <v>1740800</v>
       </c>
       <c r="E44" s="3">
-        <v>1577500</v>
+        <v>1523100</v>
       </c>
       <c r="F44" s="3">
-        <v>1444300</v>
+        <v>1394500</v>
       </c>
       <c r="G44" s="3">
-        <v>1526200</v>
+        <v>1473600</v>
       </c>
       <c r="H44" s="3">
-        <v>1541800</v>
+        <v>1488700</v>
       </c>
       <c r="I44" s="3">
-        <v>1308300</v>
+        <v>1263200</v>
       </c>
       <c r="J44" s="3">
-        <v>2790700</v>
+        <v>2694500</v>
       </c>
       <c r="K44" s="3">
         <v>1357400</v>
       </c>
       <c r="L44" s="3"/>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>199100</v>
+        <v>192300</v>
       </c>
       <c r="E45" s="3">
-        <v>165300</v>
+        <v>159600</v>
       </c>
       <c r="F45" s="3">
-        <v>161500</v>
+        <v>155900</v>
       </c>
       <c r="G45" s="3">
-        <v>180500</v>
+        <v>174300</v>
       </c>
       <c r="H45" s="3">
-        <v>211700</v>
+        <v>204400</v>
       </c>
       <c r="I45" s="3">
-        <v>204700</v>
+        <v>197700</v>
       </c>
       <c r="J45" s="3">
-        <v>749000</v>
+        <v>723100</v>
       </c>
       <c r="K45" s="3">
         <v>230200</v>
       </c>
       <c r="L45" s="3"/>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>5972900</v>
+        <v>5767100</v>
       </c>
       <c r="E46" s="3">
-        <v>5576400</v>
+        <v>5384200</v>
       </c>
       <c r="F46" s="3">
-        <v>5582100</v>
+        <v>5389700</v>
       </c>
       <c r="G46" s="3">
-        <v>5251000</v>
+        <v>5070000</v>
       </c>
       <c r="H46" s="3">
-        <v>5395600</v>
+        <v>5209600</v>
       </c>
       <c r="I46" s="3">
-        <v>4711300</v>
+        <v>4548900</v>
       </c>
       <c r="J46" s="3">
-        <v>4586400</v>
+        <v>4428400</v>
       </c>
       <c r="K46" s="3">
         <v>4888900</v>
       </c>
       <c r="L46" s="3"/>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>69200</v>
+        <v>66800</v>
       </c>
       <c r="E47" s="3">
-        <v>108500</v>
+        <v>104800</v>
       </c>
       <c r="F47" s="3">
-        <v>96600</v>
+        <v>93200</v>
       </c>
       <c r="G47" s="3">
-        <v>145400</v>
+        <v>140400</v>
       </c>
       <c r="H47" s="3">
-        <v>177600</v>
+        <v>171500</v>
       </c>
       <c r="I47" s="3">
-        <v>134800</v>
+        <v>130100</v>
       </c>
       <c r="J47" s="3">
-        <v>141100</v>
+        <v>136300</v>
       </c>
       <c r="K47" s="3">
         <v>198300</v>
       </c>
       <c r="L47" s="3"/>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2269900</v>
+        <v>2191700</v>
       </c>
       <c r="E48" s="3">
-        <v>2065800</v>
+        <v>1994600</v>
       </c>
       <c r="F48" s="3">
-        <v>2015600</v>
+        <v>1946100</v>
       </c>
       <c r="G48" s="3">
-        <v>1986000</v>
+        <v>1917500</v>
       </c>
       <c r="H48" s="3">
-        <v>2038100</v>
+        <v>1967800</v>
       </c>
       <c r="I48" s="3">
-        <v>1858300</v>
+        <v>1794200</v>
       </c>
       <c r="J48" s="3">
-        <v>622800</v>
+        <v>601300</v>
       </c>
       <c r="K48" s="3">
         <v>1772400</v>
       </c>
       <c r="L48" s="3"/>
     </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1308700</v>
+        <v>1263600</v>
       </c>
       <c r="E49" s="3">
-        <v>1223800</v>
+        <v>1181600</v>
       </c>
       <c r="F49" s="3">
-        <v>845400</v>
+        <v>816300</v>
       </c>
       <c r="G49" s="3">
-        <v>925800</v>
+        <v>893900</v>
       </c>
       <c r="H49" s="3">
-        <v>993300</v>
+        <v>959100</v>
       </c>
       <c r="I49" s="3">
-        <v>956500</v>
+        <v>923500</v>
       </c>
       <c r="J49" s="3">
-        <v>1325000</v>
+        <v>1279400</v>
       </c>
       <c r="K49" s="3">
         <v>1266200</v>
       </c>
       <c r="L49" s="3"/>
     </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1896,7 +1861,7 @@
       </c>
       <c r="L50" s="3"/>
     </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1926,37 +1891,37 @@
       </c>
       <c r="L51" s="3"/>
     </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>853900</v>
+        <v>824500</v>
       </c>
       <c r="E52" s="3">
-        <v>713200</v>
+        <v>688600</v>
       </c>
       <c r="F52" s="3">
-        <v>701100</v>
+        <v>676900</v>
       </c>
       <c r="G52" s="3">
-        <v>676600</v>
+        <v>653300</v>
       </c>
       <c r="H52" s="3">
-        <v>618900</v>
+        <v>597600</v>
       </c>
       <c r="I52" s="3">
-        <v>519900</v>
+        <v>502000</v>
       </c>
       <c r="J52" s="3">
-        <v>560700</v>
+        <v>541400</v>
       </c>
       <c r="K52" s="3">
         <v>545400</v>
       </c>
       <c r="L52" s="3"/>
     </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1986,37 +1951,37 @@
       </c>
       <c r="L53" s="3"/>
     </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>10474700</v>
+        <v>10113600</v>
       </c>
       <c r="E54" s="3">
-        <v>9638300</v>
+        <v>9306100</v>
       </c>
       <c r="F54" s="3">
-        <v>9240700</v>
+        <v>8922200</v>
       </c>
       <c r="G54" s="3">
-        <v>8984800</v>
+        <v>8675100</v>
       </c>
       <c r="H54" s="3">
-        <v>9223500</v>
+        <v>8905600</v>
       </c>
       <c r="I54" s="3">
-        <v>8180700</v>
+        <v>7898800</v>
       </c>
       <c r="J54" s="3">
-        <v>8093900</v>
+        <v>7814900</v>
       </c>
       <c r="K54" s="3">
         <v>8671100</v>
       </c>
       <c r="L54" s="3"/>
     </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2030,7 +1995,7 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
     </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2044,187 +2009,187 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
     </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3707400</v>
+        <v>3579700</v>
       </c>
       <c r="E57" s="3">
-        <v>3349100</v>
+        <v>3233700</v>
       </c>
       <c r="F57" s="3">
-        <v>3044400</v>
+        <v>2939500</v>
       </c>
       <c r="G57" s="3">
-        <v>2848900</v>
+        <v>2750700</v>
       </c>
       <c r="H57" s="3">
-        <v>2766900</v>
+        <v>2671500</v>
       </c>
       <c r="I57" s="3">
-        <v>2218100</v>
+        <v>2141700</v>
       </c>
       <c r="J57" s="3">
-        <v>2216300</v>
+        <v>2139900</v>
       </c>
       <c r="K57" s="3">
         <v>2099000</v>
       </c>
       <c r="L57" s="3"/>
     </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>407300</v>
+        <v>393300</v>
       </c>
       <c r="E58" s="3">
-        <v>268100</v>
+        <v>258900</v>
       </c>
       <c r="F58" s="3">
-        <v>169300</v>
+        <v>163500</v>
       </c>
       <c r="G58" s="3">
-        <v>449500</v>
+        <v>434000</v>
       </c>
       <c r="H58" s="3">
-        <v>432100</v>
+        <v>417200</v>
       </c>
       <c r="I58" s="3">
-        <v>200700</v>
+        <v>193800</v>
       </c>
       <c r="J58" s="3">
-        <v>534000</v>
+        <v>515600</v>
       </c>
       <c r="K58" s="3">
         <v>473400</v>
       </c>
       <c r="L58" s="3"/>
     </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2222000</v>
+        <v>2145400</v>
       </c>
       <c r="E59" s="3">
-        <v>2077200</v>
+        <v>2005600</v>
       </c>
       <c r="F59" s="3">
-        <v>2089900</v>
+        <v>2017900</v>
       </c>
       <c r="G59" s="3">
-        <v>1969800</v>
+        <v>1901900</v>
       </c>
       <c r="H59" s="3">
-        <v>1986800</v>
+        <v>1918300</v>
       </c>
       <c r="I59" s="3">
-        <v>1971200</v>
+        <v>1903300</v>
       </c>
       <c r="J59" s="3">
-        <v>3927500</v>
+        <v>3792100</v>
       </c>
       <c r="K59" s="3">
         <v>1691800</v>
       </c>
       <c r="L59" s="3"/>
     </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>6336800</v>
+        <v>6118400</v>
       </c>
       <c r="E60" s="3">
-        <v>5694500</v>
+        <v>5498200</v>
       </c>
       <c r="F60" s="3">
-        <v>5303600</v>
+        <v>5120800</v>
       </c>
       <c r="G60" s="3">
-        <v>5268200</v>
+        <v>5086600</v>
       </c>
       <c r="H60" s="3">
-        <v>5185800</v>
+        <v>5007000</v>
       </c>
       <c r="I60" s="3">
-        <v>4390100</v>
+        <v>4238800</v>
       </c>
       <c r="J60" s="3">
-        <v>4201200</v>
+        <v>4056400</v>
       </c>
       <c r="K60" s="3">
         <v>4264200</v>
       </c>
       <c r="L60" s="3"/>
     </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>667200</v>
+        <v>644200</v>
       </c>
       <c r="E61" s="3">
-        <v>709000</v>
+        <v>684600</v>
       </c>
       <c r="F61" s="3">
-        <v>856000</v>
+        <v>826500</v>
       </c>
       <c r="G61" s="3">
-        <v>895900</v>
+        <v>865000</v>
       </c>
       <c r="H61" s="3">
-        <v>1025700</v>
+        <v>990300</v>
       </c>
       <c r="I61" s="3">
-        <v>1284700</v>
+        <v>1240400</v>
       </c>
       <c r="J61" s="3">
-        <v>1076900</v>
+        <v>1039800</v>
       </c>
       <c r="K61" s="3">
         <v>1094200</v>
       </c>
       <c r="L61" s="3"/>
     </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1129700</v>
+        <v>1090700</v>
       </c>
       <c r="E62" s="3">
-        <v>1649600</v>
+        <v>1592700</v>
       </c>
       <c r="F62" s="3">
-        <v>1171800</v>
+        <v>1131400</v>
       </c>
       <c r="G62" s="3">
-        <v>1205600</v>
+        <v>1164000</v>
       </c>
       <c r="H62" s="3">
-        <v>1239400</v>
+        <v>1196700</v>
       </c>
       <c r="I62" s="3">
-        <v>965900</v>
+        <v>932600</v>
       </c>
       <c r="J62" s="3">
-        <v>1123000</v>
+        <v>1084300</v>
       </c>
       <c r="K62" s="3">
         <v>969200</v>
       </c>
       <c r="L62" s="3"/>
     </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2254,7 +2219,7 @@
       </c>
       <c r="L63" s="3"/>
     </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2284,7 +2249,7 @@
       </c>
       <c r="L64" s="3"/>
     </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2314,37 +2279,37 @@
       </c>
       <c r="L65" s="3"/>
     </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>8134800</v>
+        <v>7854400</v>
       </c>
       <c r="E66" s="3">
-        <v>7435300</v>
+        <v>7179100</v>
       </c>
       <c r="F66" s="3">
-        <v>7334600</v>
+        <v>7081800</v>
       </c>
       <c r="G66" s="3">
-        <v>7372900</v>
+        <v>7118800</v>
       </c>
       <c r="H66" s="3">
-        <v>7454500</v>
+        <v>7197600</v>
       </c>
       <c r="I66" s="3">
-        <v>6644300</v>
+        <v>6415300</v>
       </c>
       <c r="J66" s="3">
-        <v>6405500</v>
+        <v>6184800</v>
       </c>
       <c r="K66" s="3">
         <v>6340000</v>
       </c>
       <c r="L66" s="3"/>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2358,7 +2323,7 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
     </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2388,7 +2353,7 @@
       </c>
       <c r="L68" s="3"/>
     </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2418,7 +2383,7 @@
       </c>
       <c r="L69" s="3"/>
     </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2448,7 +2413,7 @@
       </c>
       <c r="L70" s="3"/>
     </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2478,37 +2443,37 @@
       </c>
       <c r="L71" s="3"/>
     </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1861000</v>
+        <v>1796800</v>
       </c>
       <c r="E72" s="3">
-        <v>1723900</v>
+        <v>1664400</v>
       </c>
       <c r="F72" s="3">
-        <v>1427100</v>
+        <v>1377900</v>
       </c>
       <c r="G72" s="3">
-        <v>1132900</v>
+        <v>1093900</v>
       </c>
       <c r="H72" s="3">
-        <v>1290000</v>
+        <v>1245500</v>
       </c>
       <c r="I72" s="3">
-        <v>1057500</v>
+        <v>1021000</v>
       </c>
       <c r="J72" s="3">
-        <v>1209300</v>
+        <v>1167700</v>
       </c>
       <c r="K72" s="3">
         <v>1826000</v>
       </c>
       <c r="L72" s="3"/>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2538,7 +2503,7 @@
       </c>
       <c r="L73" s="3"/>
     </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2568,7 +2533,7 @@
       </c>
       <c r="L74" s="3"/>
     </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2598,37 +2563,37 @@
       </c>
       <c r="L75" s="3"/>
     </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2339900</v>
+        <v>2259200</v>
       </c>
       <c r="E76" s="3">
-        <v>2203000</v>
+        <v>2127000</v>
       </c>
       <c r="F76" s="3">
-        <v>1906100</v>
+        <v>1840400</v>
       </c>
       <c r="G76" s="3">
-        <v>1611900</v>
+        <v>1556400</v>
       </c>
       <c r="H76" s="3">
-        <v>1769000</v>
+        <v>1708000</v>
       </c>
       <c r="I76" s="3">
-        <v>1536500</v>
+        <v>1483500</v>
       </c>
       <c r="J76" s="3">
-        <v>1688300</v>
+        <v>1630100</v>
       </c>
       <c r="K76" s="3">
         <v>2331100</v>
       </c>
       <c r="L76" s="3"/>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2658,12 +2623,12 @@
       </c>
       <c r="L77" s="3"/>
     </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
@@ -2693,37 +2658,37 @@
       </c>
       <c r="L80" s="2"/>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>409600</v>
+        <v>395300</v>
       </c>
       <c r="E81" s="3">
-        <v>604600</v>
+        <v>583800</v>
       </c>
       <c r="F81" s="3">
-        <v>483700</v>
+        <v>467100</v>
       </c>
       <c r="G81" s="3">
-        <v>168600</v>
+        <v>162800</v>
       </c>
       <c r="H81" s="3">
-        <v>241200</v>
+        <v>232900</v>
       </c>
       <c r="I81" s="3">
-        <v>72200</v>
+        <v>69700</v>
       </c>
       <c r="J81" s="3">
-        <v>254200</v>
+        <v>245500</v>
       </c>
       <c r="K81" s="3">
         <v>234300</v>
       </c>
       <c r="L81" s="3"/>
     </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2737,37 +2702,37 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
     </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>446700</v>
+        <v>431300</v>
       </c>
       <c r="E83" s="3">
-        <v>428100</v>
+        <v>413300</v>
       </c>
       <c r="F83" s="3">
-        <v>423500</v>
+        <v>408900</v>
       </c>
       <c r="G83" s="3">
-        <v>423700</v>
+        <v>409100</v>
       </c>
       <c r="H83" s="3">
-        <v>395100</v>
+        <v>381500</v>
       </c>
       <c r="I83" s="3">
-        <v>361200</v>
-      </c>
-      <c r="J83" s="3">
-        <v>349900</v>
+        <v>348800</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K83" s="3">
         <v>360200</v>
       </c>
       <c r="L83" s="3"/>
     </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2797,7 +2762,7 @@
       </c>
       <c r="L84" s="3"/>
     </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2827,7 +2792,7 @@
       </c>
       <c r="L85" s="3"/>
     </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2857,7 +2822,7 @@
       </c>
       <c r="L86" s="3"/>
     </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2887,7 +2852,7 @@
       </c>
       <c r="L87" s="3"/>
     </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2917,37 +2882,37 @@
       </c>
       <c r="L88" s="3"/>
     </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>866100</v>
+        <v>836200</v>
       </c>
       <c r="E89" s="3">
-        <v>1079000</v>
+        <v>1041800</v>
       </c>
       <c r="F89" s="3">
-        <v>1094200</v>
+        <v>1056400</v>
       </c>
       <c r="G89" s="3">
-        <v>889900</v>
+        <v>859200</v>
       </c>
       <c r="H89" s="3">
-        <v>842000</v>
+        <v>812900</v>
       </c>
       <c r="I89" s="3">
-        <v>479500</v>
+        <v>463000</v>
       </c>
       <c r="J89" s="3">
-        <v>762100</v>
+        <v>735800</v>
       </c>
       <c r="K89" s="3">
         <v>612900</v>
       </c>
       <c r="L89" s="3"/>
     </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2961,37 +2926,37 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
     </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-500500</v>
+        <v>-483300</v>
       </c>
       <c r="E91" s="3">
-        <v>-418900</v>
+        <v>-404500</v>
       </c>
       <c r="F91" s="3">
-        <v>-304600</v>
+        <v>-294100</v>
       </c>
       <c r="G91" s="3">
-        <v>-325800</v>
+        <v>-314600</v>
       </c>
       <c r="H91" s="3">
-        <v>-323600</v>
+        <v>-312400</v>
       </c>
       <c r="I91" s="3">
-        <v>-380500</v>
+        <v>-367400</v>
       </c>
       <c r="J91" s="3">
-        <v>-440200</v>
+        <v>-425100</v>
       </c>
       <c r="K91" s="3">
         <v>-443500</v>
       </c>
       <c r="L91" s="3"/>
     </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3021,7 +2986,7 @@
       </c>
       <c r="L92" s="3"/>
     </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3051,37 +3016,37 @@
       </c>
       <c r="L93" s="3"/>
     </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-700300</v>
+        <v>-676200</v>
       </c>
       <c r="E94" s="3">
-        <v>-882600</v>
+        <v>-852200</v>
       </c>
       <c r="F94" s="3">
-        <v>-275200</v>
+        <v>-265700</v>
       </c>
       <c r="G94" s="3">
-        <v>-366300</v>
+        <v>-353700</v>
       </c>
       <c r="H94" s="3">
-        <v>-404600</v>
+        <v>-390700</v>
       </c>
       <c r="I94" s="3">
-        <v>-509600</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-506100</v>
+        <v>-492000</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K94" s="3">
         <v>-1140800</v>
       </c>
       <c r="L94" s="3"/>
     </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3095,37 +3060,37 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
     </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-256700</v>
+        <v>-247900</v>
       </c>
       <c r="E96" s="3">
-        <v>-232000</v>
+        <v>-224000</v>
       </c>
       <c r="F96" s="3">
-        <v>-201100</v>
+        <v>-194100</v>
       </c>
       <c r="G96" s="3">
-        <v>-201300</v>
+        <v>-194300</v>
       </c>
       <c r="H96" s="3">
-        <v>-200300</v>
+        <v>-193400</v>
       </c>
       <c r="I96" s="3">
-        <v>-200200</v>
+        <v>-193300</v>
       </c>
       <c r="J96" s="3">
-        <v>-201100</v>
+        <v>-194100</v>
       </c>
       <c r="K96" s="3">
         <v>-210000</v>
       </c>
       <c r="L96" s="3"/>
     </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3155,7 +3120,7 @@
       </c>
       <c r="L97" s="3"/>
     </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3185,7 +3150,7 @@
       </c>
       <c r="L98" s="3"/>
     </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3215,90 +3180,90 @@
       </c>
       <c r="L99" s="3"/>
     </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-134000</v>
+        <v>-129400</v>
       </c>
       <c r="E100" s="3">
-        <v>-342100</v>
+        <v>-330300</v>
       </c>
       <c r="F100" s="3">
-        <v>-583800</v>
+        <v>-563700</v>
       </c>
       <c r="G100" s="3">
-        <v>-320800</v>
+        <v>-309700</v>
       </c>
       <c r="H100" s="3">
-        <v>-188000</v>
+        <v>-181600</v>
       </c>
       <c r="I100" s="3">
-        <v>48900</v>
-      </c>
-      <c r="J100" s="3">
-        <v>-244200</v>
+        <v>47200</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K100" s="3">
         <v>149500</v>
       </c>
       <c r="L100" s="3"/>
     </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>12200</v>
+        <v>11700</v>
       </c>
       <c r="E101" s="3">
-        <v>-12200</v>
+        <v>-11700</v>
       </c>
       <c r="F101" s="3">
-        <v>-13300</v>
+        <v>-12900</v>
       </c>
       <c r="G101" s="3">
-        <v>-31800</v>
+        <v>-30700</v>
       </c>
       <c r="H101" s="3">
-        <v>19800</v>
+        <v>19100</v>
       </c>
       <c r="I101" s="3">
-        <v>-43400</v>
-      </c>
-      <c r="J101" s="3">
-        <v>-25800</v>
+        <v>-41900</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K101" s="3">
         <v>-10200</v>
       </c>
       <c r="L101" s="3"/>
     </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>43900</v>
+        <v>42400</v>
       </c>
       <c r="E102" s="3">
-        <v>-157900</v>
+        <v>-152500</v>
       </c>
       <c r="F102" s="3">
-        <v>221700</v>
+        <v>214100</v>
       </c>
       <c r="G102" s="3">
-        <v>171000</v>
+        <v>165100</v>
       </c>
       <c r="H102" s="3">
-        <v>269100</v>
+        <v>259800</v>
       </c>
       <c r="I102" s="3">
-        <v>-24500</v>
+        <v>-23700</v>
       </c>
       <c r="J102" s="3">
-        <v>-14100</v>
+        <v>-13600</v>
       </c>
       <c r="K102" s="3">
         <v>-388600</v>
